--- a/MasPruebas/excel/caso06_periodontitisI.xlsx
+++ b/MasPruebas/excel/caso06_periodontitisI.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>22/06/2024</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/06/2024</t>
+          <t>22/06/2024</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
         <v>0</v>
@@ -2393,13 +2393,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -3683,7 +3683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.744047619047619</v>
+        <v>2.738095238095238</v>
       </c>
     </row>
     <row r="5">
@@ -3749,37 +3749,37 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Dientes movilidad 0</t>
+          <t>Sites PPD 0-3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Dientes movilidad 1</t>
+          <t>Sites PPD 4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Dientes movilidad 2</t>
+          <t>Sites PPD 5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Dientes movilidad 3</t>
+          <t>Sites PPD 6-8</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3789,7 +3789,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Afectación de furca media</t>
+          <t>Sites PPD &gt;=9</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3799,37 +3799,37 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Dientes afectación furca 0</t>
+          <t>Sites CAL 0</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Dientes afectación furca 1</t>
+          <t>Sites CAL 1-2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Dientes afectación furca 2</t>
+          <t>Sites CAL 3-4</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Dientes afectación furca 3</t>
+          <t>Sites CAL &gt;=5</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3839,132 +3839,222 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BOP %</t>
+          <t>Dientes movilidad 0</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4642857142857143</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Placa %</t>
+          <t>Dientes movilidad 1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2142857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Supuración %</t>
+          <t>Dientes movilidad 2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005952380952380952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Tratamiento previo</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>Dientes movilidad 3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Tipo de tratamiento previo</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>Afectación de furca media</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Dientes hipermóviles en extracción</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Dientes afectación furca 0</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Colapso de mordida</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>Dientes afectación furca 1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Tabaquismo/vapeo</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>Dientes afectación furca 2</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Meses fumando</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Dientes afectación furca 3</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Cigarrillos/sesiones por día</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>BOP %</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>46.42857142857143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Duración sesiones</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>Placa %</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>Supuración %</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Tratamiento previo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de tratamiento previo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Dientes hipermóviles en extracción</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Colapso de mordida</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Tabaquismo/vapeo</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Meses fumando</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Cigarrillos/sesiones por día</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Duración sesiones</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
           <t>Meses sin fumar</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
